--- a/app/Licenciatura_em_Ciencias_de_Informacao_Geografica.xlsx
+++ b/app/Licenciatura_em_Ciencias_de_Informacao_Geografica.xlsx
@@ -13,37 +13,34 @@
     <sheet name="20150812" sheetId="3" r:id="rId6"/>
     <sheet name="20150804" sheetId="4" r:id="rId7"/>
     <sheet name="20150817" sheetId="5" r:id="rId8"/>
-    <sheet name="20154397" sheetId="6" r:id="rId9"/>
-    <sheet name="20150818" sheetId="7" r:id="rId10"/>
-    <sheet name="20154394" sheetId="8" r:id="rId11"/>
-    <sheet name="20150802" sheetId="9" r:id="rId12"/>
-    <sheet name="20150797" sheetId="10" r:id="rId13"/>
-    <sheet name="20150806" sheetId="11" r:id="rId14"/>
-    <sheet name="20150815" sheetId="12" r:id="rId15"/>
-    <sheet name="20150799" sheetId="13" r:id="rId16"/>
-    <sheet name="20150819" sheetId="14" r:id="rId17"/>
-    <sheet name="20150821" sheetId="15" r:id="rId18"/>
-    <sheet name="20150823" sheetId="16" r:id="rId19"/>
-    <sheet name="20150826" sheetId="17" r:id="rId20"/>
-    <sheet name="20150811" sheetId="18" r:id="rId21"/>
-    <sheet name="20150809" sheetId="19" r:id="rId22"/>
-    <sheet name="20150803" sheetId="20" r:id="rId23"/>
-    <sheet name="20150808" sheetId="21" r:id="rId24"/>
-    <sheet name="20150798" sheetId="22" r:id="rId25"/>
-    <sheet name="20150801" sheetId="23" r:id="rId26"/>
-    <sheet name="20150816" sheetId="24" r:id="rId27"/>
-    <sheet name="20150810" sheetId="25" r:id="rId28"/>
-    <sheet name="20150814" sheetId="26" r:id="rId29"/>
-    <sheet name="20154831" sheetId="27" r:id="rId30"/>
-    <sheet name="20150824" sheetId="28" r:id="rId31"/>
-    <sheet name="20150820" sheetId="29" r:id="rId32"/>
-    <sheet name="20150800" sheetId="30" r:id="rId33"/>
-    <sheet name="20150813" sheetId="31" r:id="rId34"/>
-    <sheet name="20150822" sheetId="32" r:id="rId35"/>
-    <sheet name="20150825" sheetId="33" r:id="rId36"/>
-    <sheet name="20150807" sheetId="34" r:id="rId37"/>
-    <sheet name="Sheet2" sheetId="35" r:id="rId38"/>
-    <sheet name="Sheet3" sheetId="36" r:id="rId39"/>
+    <sheet name="20150818" sheetId="6" r:id="rId9"/>
+    <sheet name="20150802" sheetId="7" r:id="rId10"/>
+    <sheet name="20150797" sheetId="8" r:id="rId11"/>
+    <sheet name="20150806" sheetId="9" r:id="rId12"/>
+    <sheet name="20150815" sheetId="10" r:id="rId13"/>
+    <sheet name="20150799" sheetId="11" r:id="rId14"/>
+    <sheet name="20150819" sheetId="12" r:id="rId15"/>
+    <sheet name="20150821" sheetId="13" r:id="rId16"/>
+    <sheet name="20150823" sheetId="14" r:id="rId17"/>
+    <sheet name="20150826" sheetId="15" r:id="rId18"/>
+    <sheet name="20150811" sheetId="16" r:id="rId19"/>
+    <sheet name="20150809" sheetId="17" r:id="rId20"/>
+    <sheet name="20150803" sheetId="18" r:id="rId21"/>
+    <sheet name="20150808" sheetId="19" r:id="rId22"/>
+    <sheet name="20150798" sheetId="20" r:id="rId23"/>
+    <sheet name="20150801" sheetId="21" r:id="rId24"/>
+    <sheet name="20150816" sheetId="22" r:id="rId25"/>
+    <sheet name="20150810" sheetId="23" r:id="rId26"/>
+    <sheet name="20150814" sheetId="24" r:id="rId27"/>
+    <sheet name="20150824" sheetId="25" r:id="rId28"/>
+    <sheet name="20150820" sheetId="26" r:id="rId29"/>
+    <sheet name="20150800" sheetId="27" r:id="rId30"/>
+    <sheet name="20150813" sheetId="28" r:id="rId31"/>
+    <sheet name="20150822" sheetId="29" r:id="rId32"/>
+    <sheet name="20150825" sheetId="30" r:id="rId33"/>
+    <sheet name="20150807" sheetId="31" r:id="rId34"/>
+    <sheet name="Sheet2" sheetId="32" r:id="rId35"/>
+    <sheet name="Sheet3" sheetId="33" r:id="rId36"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
@@ -51,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="274">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -200,9 +197,6 @@
     <t>Alda Pedro Pelembe</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -239,9 +233,6 @@
     <t>Ofelia Zefanias Machava</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>110102312010A</t>
   </si>
   <si>
@@ -266,9 +257,6 @@
     <t xml:space="preserve">Constancia Januario </t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>110501746162B</t>
   </si>
   <si>
@@ -293,24 +281,12 @@
     <t>Cristina Samuel ComÃ©</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>+258843953791</t>
   </si>
   <si>
     <t>Outra - Prov Maputo</t>
   </si>
   <si>
-    <t>Socovinho</t>
-  </si>
-  <si>
-    <t>Ramilo Rodrigues</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
     <t xml:space="preserve">SalomÃo </t>
   </si>
   <si>
@@ -335,12 +311,6 @@
     <t>Escola Secundaria Eduardo Mondlane</t>
   </si>
   <si>
-    <t>Nhantumbo</t>
-  </si>
-  <si>
-    <t>Xavier Abrão</t>
-  </si>
-  <si>
     <t>Nhalivilo</t>
   </si>
   <si>
@@ -356,9 +326,6 @@
     <t>Etelvina Odete Sumbane</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>110300614380S</t>
   </si>
   <si>
@@ -431,9 +398,6 @@
     <t>Luisa Castigo Mambiza</t>
   </si>
   <si>
-    <t>Distrito de Manica</t>
-  </si>
-  <si>
     <t>060101180293A</t>
   </si>
   <si>
@@ -752,19 +716,10 @@
     <t>Argentina Samuel Mabote</t>
   </si>
   <si>
-    <t>Distrito Municipal Kanyaka</t>
-  </si>
-  <si>
     <t>110101527980Q</t>
   </si>
   <si>
     <t>+258822724170</t>
-  </si>
-  <si>
-    <t>Cumbana</t>
-  </si>
-  <si>
-    <t>Arsénio Armando Américo</t>
   </si>
   <si>
     <t>Cossa</t>
@@ -2150,7 +2105,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150797</v>
+        <v>20150815</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -2174,7 +2129,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2190,7 +2145,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2206,7 +2161,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2222,7 +2177,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2238,7 +2193,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2253,9 +2208,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2263,7 +2216,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2274,7 +2227,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2283,7 +2236,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2295,7 +2248,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2303,7 +2256,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2399,7 +2352,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2442,7 +2395,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2745,7 +2698,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150806</v>
+        <v>20150799</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -2769,7 +2722,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2785,7 +2738,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2801,7 +2754,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2817,7 +2770,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2833,7 +2786,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2848,9 +2801,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2858,7 +2809,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2869,7 +2820,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2878,7 +2829,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2890,7 +2841,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2898,7 +2849,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2994,7 +2945,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3021,7 +2972,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2008</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -3037,7 +2988,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3340,7 +3291,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150815</v>
+        <v>20150819</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -3364,7 +3315,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3380,7 +3331,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3396,7 +3347,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3412,7 +3363,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3428,7 +3379,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3443,9 +3394,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>126</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3453,7 +3402,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3464,7 +3413,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3473,7 +3422,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3485,7 +3434,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3493,7 +3442,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3589,7 +3538,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3632,7 +3581,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3935,7 +3884,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150799</v>
+        <v>20150821</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -3959,7 +3908,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3975,7 +3924,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3991,7 +3940,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4007,7 +3956,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4023,7 +3972,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4038,9 +3987,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4048,7 +3995,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4059,7 +4006,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4068,7 +4015,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4080,7 +4027,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4088,7 +4035,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4184,7 +4131,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4211,7 +4158,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -4227,7 +4174,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4530,7 +4477,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150819</v>
+        <v>20150823</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -4554,7 +4501,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4570,7 +4517,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4586,7 +4533,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4602,7 +4549,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4618,7 +4565,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4633,9 +4580,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4643,7 +4588,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4654,7 +4599,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4663,7 +4608,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4675,7 +4620,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4683,7 +4628,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4779,7 +4724,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4806,7 +4751,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -4822,7 +4767,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5125,7 +5070,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150821</v>
+        <v>20150826</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5149,7 +5094,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5165,7 +5110,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5181,7 +5126,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5197,7 +5142,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5213,7 +5158,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5228,9 +5173,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5238,7 +5181,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5249,7 +5192,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5258,7 +5201,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5270,7 +5213,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5278,7 +5221,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5374,7 +5317,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5401,7 +5344,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -5417,7 +5360,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5720,7 +5663,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150823</v>
+        <v>20150811</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5744,7 +5687,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5760,7 +5703,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5776,7 +5719,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5792,7 +5735,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5808,7 +5751,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5823,9 +5766,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>101</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5833,7 +5774,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5844,7 +5785,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5853,7 +5794,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5865,7 +5806,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5873,7 +5814,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5969,7 +5910,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5996,7 +5937,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -6012,7 +5953,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>161</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6315,7 +6256,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150826</v>
+        <v>20150809</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -6339,7 +6280,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6355,7 +6296,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6371,7 +6312,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6387,7 +6328,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6403,7 +6344,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6418,9 +6359,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>101</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6428,7 +6367,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6439,7 +6378,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6448,7 +6387,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6460,7 +6399,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6468,7 +6407,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6564,7 +6503,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6591,7 +6530,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -6607,7 +6546,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6910,7 +6849,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150811</v>
+        <v>20150803</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -6934,7 +6873,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6950,7 +6889,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6966,7 +6905,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6982,7 +6921,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6998,7 +6937,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7013,9 +6952,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>101</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7023,7 +6960,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7034,7 +6971,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7043,7 +6980,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7055,7 +6992,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7063,7 +7000,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7159,7 +7096,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7186,7 +7123,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -7202,7 +7139,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7505,7 +7442,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150809</v>
+        <v>20150808</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -7529,7 +7466,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7545,7 +7482,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7561,7 +7498,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7577,7 +7514,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7593,7 +7530,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7608,9 +7545,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7618,7 +7553,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7629,7 +7564,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7638,7 +7573,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7650,7 +7585,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7658,7 +7593,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7754,7 +7689,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7781,7 +7716,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -7797,7 +7732,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8203,9 +8138,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8213,7 +8146,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8224,7 +8157,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8233,7 +8166,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8245,7 +8178,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8253,7 +8186,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8349,7 +8282,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8392,7 +8325,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8695,7 +8628,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150803</v>
+        <v>20150798</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -8719,7 +8652,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8735,7 +8668,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8751,7 +8684,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8767,7 +8700,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8783,7 +8716,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8798,9 +8731,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>101</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8808,7 +8739,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8819,7 +8750,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8828,7 +8759,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8840,7 +8771,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8848,7 +8779,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8944,7 +8875,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8971,7 +8902,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -8987,7 +8918,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>161</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9290,7 +9221,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150808</v>
+        <v>20150801</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9314,7 +9245,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9330,7 +9261,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9346,7 +9277,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9362,7 +9293,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9378,7 +9309,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9393,9 +9324,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9403,7 +9332,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9414,7 +9343,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9423,7 +9352,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9435,7 +9364,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9443,7 +9372,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9539,7 +9468,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9582,7 +9511,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>199</v>
+        <v>150</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9885,7 +9814,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150798</v>
+        <v>20150816</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9909,7 +9838,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9925,7 +9854,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9941,7 +9870,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9957,7 +9886,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9973,7 +9902,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9988,9 +9917,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9998,7 +9925,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10009,7 +9936,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10018,7 +9945,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10030,7 +9957,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10038,7 +9965,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10134,7 +10061,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10161,7 +10088,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -10177,7 +10104,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>150</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10480,7 +10407,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150801</v>
+        <v>20150810</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10504,7 +10431,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10520,7 +10447,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10536,7 +10463,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10552,7 +10479,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10568,7 +10495,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10583,9 +10510,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10593,7 +10518,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10604,7 +10529,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10613,7 +10538,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10625,7 +10550,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10633,7 +10558,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10729,7 +10654,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10772,7 +10697,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>161</v>
+        <v>110</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11075,7 +11000,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150816</v>
+        <v>20150814</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11099,7 +11024,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11115,7 +11040,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11131,7 +11056,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11147,7 +11072,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11163,7 +11088,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11178,9 +11103,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11188,7 +11111,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11199,7 +11122,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11208,7 +11131,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11220,7 +11143,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11228,7 +11151,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11324,7 +11247,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11351,7 +11274,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -11367,7 +11290,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>161</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11670,7 +11593,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150810</v>
+        <v>20150824</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11694,7 +11617,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11710,7 +11633,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11726,7 +11649,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11742,7 +11665,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11758,7 +11681,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11773,9 +11696,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11783,7 +11704,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11794,7 +11715,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11803,7 +11724,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11815,7 +11736,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11823,7 +11744,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11919,7 +11840,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11946,7 +11867,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -11962,7 +11883,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12265,7 +12186,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150814</v>
+        <v>20150820</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12289,7 +12210,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12305,7 +12226,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12321,7 +12242,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12337,7 +12258,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12353,7 +12274,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12368,9 +12289,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>233</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12378,7 +12297,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12389,7 +12308,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12398,7 +12317,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12410,7 +12329,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12418,7 +12337,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12514,7 +12433,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12557,7 +12476,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>142</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12808,7 +12727,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -12858,7 +12779,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154831</v>
+        <v>20150800</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12882,7 +12803,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12898,7 +12819,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12913,7 +12834,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>240</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -12927,7 +12850,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>241</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -12941,7 +12866,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>242</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -12962,7 +12889,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -12971,14 +12900,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -12988,13 +12921,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>243</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -13089,7 +13026,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>85</v>
+        <v>244</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13115,7 +13052,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2013</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -13129,7 +13068,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>78</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -13431,7 +13372,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150824</v>
+        <v>20150813</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -13455,7 +13396,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13471,7 +13412,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13487,7 +13428,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13503,7 +13444,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13519,7 +13460,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13534,9 +13475,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13544,7 +13483,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13555,7 +13494,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13564,7 +13503,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13576,7 +13515,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13584,7 +13523,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13680,7 +13619,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13707,7 +13646,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -13723,7 +13662,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14026,7 +13965,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150820</v>
+        <v>20150822</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -14050,7 +13989,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14066,7 +14005,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14082,7 +14021,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14098,7 +14037,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14114,7 +14053,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14129,9 +14068,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>101</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14139,7 +14076,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14150,7 +14087,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14159,7 +14096,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14171,7 +14108,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14179,7 +14116,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14275,7 +14212,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14302,7 +14239,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -14318,7 +14255,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14645,7 +14582,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14661,7 +14598,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14677,7 +14614,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14693,7 +14630,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14709,7 +14646,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14724,9 +14661,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14734,7 +14669,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14745,7 +14680,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14754,7 +14689,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14766,7 +14701,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14774,7 +14709,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14870,7 +14805,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14913,7 +14848,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15216,7 +15151,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150800</v>
+        <v>20150825</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15240,7 +15175,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15256,7 +15191,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15272,7 +15207,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15288,7 +15223,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15304,7 +15239,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15319,9 +15254,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15329,7 +15262,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15340,7 +15273,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15349,7 +15282,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15361,7 +15294,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15369,7 +15302,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15465,7 +15398,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15492,7 +15425,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -15508,7 +15441,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15811,7 +15744,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150813</v>
+        <v>20150807</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15835,7 +15768,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15851,7 +15784,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15867,7 +15800,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15883,7 +15816,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15899,7 +15832,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15914,9 +15847,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15924,7 +15855,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15935,7 +15866,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15944,7 +15875,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15956,7 +15887,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15964,7 +15895,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16060,7 +15991,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16103,7 +16034,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>137</v>
+        <v>273</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16306,1791 +16237,6 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20150822</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>270</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>272</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2012</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20150825</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>273</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>279</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2011</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20150807</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>280</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>281</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>286</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2013</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
@@ -18114,7 +16260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18271,7 +16417,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18287,7 +16433,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18303,7 +16449,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18319,7 +16465,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18335,7 +16481,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18350,9 +16496,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18360,7 +16504,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18371,7 +16515,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18380,7 +16524,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18392,7 +16536,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18400,7 +16544,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18496,7 +16640,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18539,7 +16683,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18866,7 +17010,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18882,7 +17026,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18898,7 +17042,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18914,7 +17058,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18930,7 +17074,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18945,9 +17089,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18955,7 +17097,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18966,7 +17108,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18975,7 +17117,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18987,7 +17129,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19091,7 +17233,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19134,7 +17276,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19385,7 +17527,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -19435,7 +17579,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154397</v>
+        <v>20150818</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -19459,7 +17603,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19475,7 +17619,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19490,7 +17634,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>81</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -19504,7 +17650,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>82</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -19518,7 +17666,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>83</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -19539,7 +17689,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -19548,14 +17700,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -19565,13 +17721,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>84</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -19692,7 +17852,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2011</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -19706,7 +17868,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>86</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -20008,7 +18172,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150818</v>
+        <v>20150802</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -20032,7 +18196,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20048,7 +18212,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20064,7 +18228,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20080,7 +18244,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20096,7 +18260,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -20111,9 +18275,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20121,7 +18283,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20132,7 +18294,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20141,7 +18303,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20153,7 +18315,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -20161,7 +18323,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20257,7 +18419,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20284,7 +18446,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -20300,7 +18462,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20551,7 +18713,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -20601,7 +18765,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154394</v>
+        <v>20150797</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -20656,7 +18820,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>96</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -20670,7 +18836,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>97</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -20684,7 +18852,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>98</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -20705,7 +18875,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -20714,14 +18886,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -20731,13 +18907,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>99</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -20832,7 +19012,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20858,7 +19038,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2013</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -20872,7 +19054,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>101</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -21174,7 +19358,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20150802</v>
+        <v>20150806</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -21198,7 +19382,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -21214,7 +19398,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -21230,7 +19414,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -21246,7 +19430,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -21262,7 +19446,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -21277,9 +19461,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>101</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -21287,7 +19469,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -21298,7 +19480,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -21307,7 +19489,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -21319,7 +19501,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -21327,7 +19509,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -21423,7 +19605,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -21450,7 +19632,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -21466,7 +19648,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
